--- a/Meilenstein 3/Dokumente/Bewertung und Entscheidung.xlsx
+++ b/Meilenstein 3/Dokumente/Bewertung und Entscheidung.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\MS3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\Methodisches Konstruieren\Übungen\git repo\MKon\Meilenstein 3\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066DAE16-A53F-4048-A96C-F87AA8531246}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E83CCE-C84E-4AC7-8F53-1197B361E7E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{676271D3-C705-4B34-B63C-BD4B7BC96D56}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{676271D3-C705-4B34-B63C-BD4B7BC96D56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$5:$G$130</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -429,7 +432,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -653,10 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -671,13 +674,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -685,7 +688,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1005,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A4D99-0B04-462E-9756-34C70A2DBC0E}">
   <dimension ref="A1:AR277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2666,17 +2669,17 @@
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="30">
-        <f t="shared" ref="O24:U24" si="10">SUM(O7:O22)</f>
+        <f t="shared" ref="O24" si="10">SUM(O7:O22)</f>
         <v>7.3634166666666658</v>
       </c>
       <c r="P24" s="29"/>
       <c r="Q24" s="30">
-        <f t="shared" ref="Q24:U24" si="11">SUM(Q7:Q22)</f>
+        <f t="shared" ref="Q24" si="11">SUM(Q7:Q22)</f>
         <v>6.6805833333333338</v>
       </c>
       <c r="R24" s="29"/>
       <c r="S24" s="31">
-        <f t="shared" ref="S24:U24" si="12">SUM(S7:S22)</f>
+        <f t="shared" ref="S24" si="12">SUM(S7:S22)</f>
         <v>6.3554166666666667</v>
       </c>
       <c r="T24" s="29"/>
@@ -4193,23 +4196,23 @@
         <v>1</v>
       </c>
       <c r="AI59" s="9">
-        <f>AI12</f>
+        <f t="shared" ref="AI59:AM62" si="43">AI12</f>
         <v>7</v>
       </c>
       <c r="AJ59" s="9">
-        <f>AJ12</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AK59" s="9">
-        <f>AK12</f>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="AL59" s="9">
-        <f>AL12</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AM59" s="9">
-        <f>AM12</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AN59" s="9"/>
@@ -4225,19 +4228,19 @@
         <v>7.4</v>
       </c>
       <c r="D60" s="33">
-        <f t="shared" ref="D60:G60" si="43">AVERAGE(D61:D65)</f>
+        <f t="shared" ref="D60:G60" si="44">AVERAGE(D61:D65)</f>
         <v>6.8</v>
       </c>
       <c r="E60" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
       <c r="F60" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.8</v>
       </c>
       <c r="G60" s="33">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7.4</v>
       </c>
       <c r="AF60" t="s">
@@ -4247,23 +4250,23 @@
         <v>1</v>
       </c>
       <c r="AI60" s="9">
-        <f>AI13</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AJ60" s="9">
-        <f>AJ13</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AK60" s="9">
-        <f>AK13</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AL60" s="9">
-        <f>AL13</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AM60" s="9">
-        <f>AM13</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AN60" s="9"/>
@@ -4279,19 +4282,19 @@
         <v>9</v>
       </c>
       <c r="D61" s="27">
-        <f t="shared" ref="D61:G61" si="44">D47</f>
+        <f t="shared" ref="D61:G61" si="45">D47</f>
         <v>8</v>
       </c>
       <c r="E61" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
       <c r="F61" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
       <c r="G61" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
       <c r="AF61" t="s">
@@ -4301,23 +4304,23 @@
         <v>1</v>
       </c>
       <c r="AI61" s="9">
-        <f>AI14</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AJ61" s="9">
-        <f>AJ14</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AK61" s="9">
-        <f>AK14</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AL61" s="9">
-        <f>AL14</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AM61" s="9">
-        <f>AM14</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AN61" s="9"/>
@@ -4329,23 +4332,23 @@
         <v>57</v>
       </c>
       <c r="C62" s="27">
-        <f t="shared" ref="C62:G63" si="45">C48</f>
+        <f t="shared" ref="C62:G63" si="46">C48</f>
         <v>6</v>
       </c>
       <c r="D62" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="E62" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="F62" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
       <c r="G62" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="AF62" t="s">
@@ -4355,23 +4358,23 @@
         <v>1</v>
       </c>
       <c r="AI62" s="9">
-        <f>AI15</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AJ62" s="9">
-        <f>AJ15</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="AK62" s="9">
-        <f>AK15</f>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="AL62" s="9">
-        <f>AL15</f>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="AM62" s="9">
-        <f>AM15</f>
+        <f t="shared" si="43"/>
         <v>6</v>
       </c>
       <c r="AN62" s="9"/>
@@ -4383,23 +4386,23 @@
         <v>58</v>
       </c>
       <c r="C63" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="D63" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="E63" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="F63" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
       <c r="G63" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="AH63">
@@ -4527,19 +4530,19 @@
         <v>1.5</v>
       </c>
       <c r="D67" s="34">
-        <f t="shared" ref="D67:G67" si="46">AVERAGE(D68:D69)</f>
+        <f t="shared" ref="D67:G67" si="47">AVERAGE(D68:D69)</f>
         <v>10</v>
       </c>
       <c r="E67" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.5</v>
       </c>
       <c r="F67" s="34">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="G67" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AF67" t="s">
@@ -4677,19 +4680,19 @@
         <v>2.5</v>
       </c>
       <c r="D71" s="34">
-        <f t="shared" ref="D71:G71" si="47">AVERAGE(D72:D73)</f>
+        <f t="shared" ref="D71:G71" si="48">AVERAGE(D72:D73)</f>
         <v>8</v>
       </c>
       <c r="E71" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.5</v>
       </c>
       <c r="F71" s="34">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4</v>
       </c>
       <c r="G71" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
       <c r="AF71" t="s">
@@ -4699,23 +4702,23 @@
         <v>1</v>
       </c>
       <c r="AI71" s="9">
-        <f t="shared" ref="AI71:AI76" si="48">AI18</f>
+        <f t="shared" ref="AI71:AI76" si="49">AI18</f>
         <v>5</v>
       </c>
       <c r="AJ71" s="9">
-        <f t="shared" ref="AJ71:AJ76" si="49">AJ18</f>
+        <f t="shared" ref="AJ71:AJ76" si="50">AJ18</f>
         <v>10</v>
       </c>
       <c r="AK71" s="9">
-        <f t="shared" ref="AK71:AK76" si="50">AK18</f>
+        <f t="shared" ref="AK71:AK76" si="51">AK18</f>
         <v>5</v>
       </c>
       <c r="AL71" s="9">
-        <f t="shared" ref="AL71:AL76" si="51">AL18</f>
+        <f t="shared" ref="AL71:AL76" si="52">AL18</f>
         <v>10</v>
       </c>
       <c r="AM71" s="9">
-        <f t="shared" ref="AM71:AM76" si="52">AM18</f>
+        <f t="shared" ref="AM71:AM76" si="53">AM18</f>
         <v>10</v>
       </c>
       <c r="AN71" s="9"/>
@@ -4748,23 +4751,23 @@
         <v>1</v>
       </c>
       <c r="AI72" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
       <c r="AJ72" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="AK72" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="AL72" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9</v>
       </c>
       <c r="AM72" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="AN72" s="9"/>
@@ -4797,23 +4800,23 @@
         <v>1</v>
       </c>
       <c r="AI73" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>8</v>
       </c>
       <c r="AJ73" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>8</v>
       </c>
       <c r="AK73" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="AL73" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8</v>
       </c>
       <c r="AM73" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="AN73" s="9"/>
@@ -4834,23 +4837,23 @@
         <v>1</v>
       </c>
       <c r="AI74" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>10</v>
       </c>
       <c r="AJ74" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="AK74" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>7</v>
       </c>
       <c r="AL74" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>10</v>
       </c>
       <c r="AM74" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="AN74" s="9"/>
@@ -4867,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="D75" s="34">
-        <f t="shared" ref="D75:G75" si="53">AVERAGE(D76:D78)</f>
+        <f t="shared" ref="D75:G75" si="54">AVERAGE(D76:D78)</f>
         <v>7.666666666666667</v>
       </c>
       <c r="E75" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>9</v>
       </c>
       <c r="F75" s="34">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="G75" s="41">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="AF75" t="s">
@@ -4889,23 +4892,23 @@
         <v>1</v>
       </c>
       <c r="AI75" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
       <c r="AJ75" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="AK75" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="AL75" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6</v>
       </c>
       <c r="AM75" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="AN75" s="9"/>
@@ -4921,19 +4924,19 @@
         <v>9</v>
       </c>
       <c r="D76" s="27">
-        <f t="shared" ref="D76:G76" si="54">D47</f>
+        <f t="shared" ref="D76:G76" si="55">D47</f>
         <v>8</v>
       </c>
       <c r="E76" s="27">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>9</v>
       </c>
       <c r="F76" s="27">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>10</v>
       </c>
       <c r="G76" s="27">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="AF76" t="s">
@@ -4943,23 +4946,23 @@
         <v>1</v>
       </c>
       <c r="AI76" s="9">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="AJ76" s="9">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="AK76" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="AL76" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5</v>
       </c>
       <c r="AM76" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AN76" s="9"/>
@@ -4971,23 +4974,23 @@
         <v>57</v>
       </c>
       <c r="C77" s="27">
-        <f t="shared" ref="C77:G77" si="55">C48</f>
+        <f t="shared" ref="C77:G77" si="56">C48</f>
         <v>6</v>
       </c>
       <c r="D77" s="27">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="E77" s="27">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>10</v>
       </c>
       <c r="F77" s="27">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6</v>
       </c>
       <c r="G77" s="27">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>10</v>
       </c>
       <c r="AH77">
@@ -5007,23 +5010,23 @@
         <v>58</v>
       </c>
       <c r="C78" s="27">
-        <f t="shared" ref="C78:G78" si="56">C49</f>
+        <f t="shared" ref="C78:G78" si="57">C49</f>
         <v>9</v>
       </c>
       <c r="D78" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="E78" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="F78" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="G78" s="27">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="AE78" t="s">
@@ -5076,19 +5079,19 @@
         <v>6</v>
       </c>
       <c r="D80" s="34">
-        <f t="shared" ref="D80:G80" si="57">AVERAGE(D81,D89)</f>
+        <f t="shared" ref="D80:G80" si="58">AVERAGE(D81,D89)</f>
         <v>8.4166666666666679</v>
       </c>
       <c r="E80" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6.4791666666666661</v>
       </c>
       <c r="F80" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>7.125</v>
       </c>
       <c r="G80" s="41">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8.8958333333333321</v>
       </c>
       <c r="AF80" t="s">
@@ -5098,23 +5101,23 @@
         <v>1</v>
       </c>
       <c r="AI80" s="9">
-        <f>AI66</f>
+        <f t="shared" ref="AI80:AM82" si="59">AI66</f>
         <v>9</v>
       </c>
       <c r="AJ80" s="9">
-        <f>AJ66</f>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="AK80" s="9">
-        <f>AK66</f>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="AL80" s="9">
-        <f>AL66</f>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AM80" s="9">
-        <f>AM66</f>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="AN80" s="9"/>
@@ -5130,19 +5133,19 @@
         <v>7</v>
       </c>
       <c r="D81" s="33">
-        <f t="shared" ref="D81" si="58">AVERAGE(D82:D87)</f>
+        <f t="shared" ref="D81" si="60">AVERAGE(D82:D87)</f>
         <v>8.8333333333333339</v>
       </c>
       <c r="E81" s="33">
-        <f t="shared" ref="E81" si="59">AVERAGE(E82:E87)</f>
+        <f t="shared" ref="E81" si="61">AVERAGE(E82:E87)</f>
         <v>6.833333333333333</v>
       </c>
       <c r="F81" s="33">
-        <f t="shared" ref="F81" si="60">AVERAGE(F82:F87)</f>
+        <f t="shared" ref="F81" si="62">AVERAGE(F82:F87)</f>
         <v>8</v>
       </c>
       <c r="G81" s="33">
-        <f t="shared" ref="G81" si="61">AVERAGE(G82:G87)</f>
+        <f t="shared" ref="G81" si="63">AVERAGE(G82:G87)</f>
         <v>8.6666666666666661</v>
       </c>
       <c r="AF81" t="s">
@@ -5152,23 +5155,23 @@
         <v>1</v>
       </c>
       <c r="AI81" s="9">
-        <f>AI67</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="AJ81" s="9">
-        <f>AJ67</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="AK81" s="9">
-        <f>AK67</f>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AL81" s="9">
-        <f>AL67</f>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="AM81" s="9">
-        <f>AM67</f>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="AN81" s="9"/>
@@ -5184,19 +5187,19 @@
         <v>5</v>
       </c>
       <c r="D82" s="27">
-        <f t="shared" ref="D82:G82" si="62">D18</f>
+        <f t="shared" ref="D82:G82" si="64">D18</f>
         <v>10</v>
       </c>
       <c r="E82" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="F82" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="G82" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10</v>
       </c>
       <c r="AC82" s="3" t="s">
@@ -5209,23 +5212,23 @@
         <v>0.15</v>
       </c>
       <c r="AI82" s="9">
-        <f>AI68</f>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="AJ82" s="9">
-        <f>AJ68</f>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="AK82" s="9">
-        <f>AK68</f>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="AL82" s="9">
-        <f>AL68</f>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="AM82" s="9">
-        <f>AM68</f>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="AN82" s="9"/>
@@ -5237,23 +5240,23 @@
         <v>29</v>
       </c>
       <c r="C83" s="27">
-        <f t="shared" ref="C83:G87" si="63">C19</f>
+        <f t="shared" ref="C83:G87" si="65">C19</f>
         <v>8</v>
       </c>
       <c r="D83" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="E83" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="F83" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>9</v>
       </c>
       <c r="G83" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="AH83">
@@ -5273,23 +5276,23 @@
         <v>30</v>
       </c>
       <c r="C84" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="D84" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="E84" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="F84" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>8</v>
       </c>
       <c r="G84" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="AD84" t="s">
@@ -5312,23 +5315,23 @@
         <v>31</v>
       </c>
       <c r="C85" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="D85" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="E85" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="F85" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="G85" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>7</v>
       </c>
       <c r="AE85" t="s">
@@ -5361,23 +5364,23 @@
         <v>32</v>
       </c>
       <c r="C86" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6</v>
       </c>
       <c r="D86" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="E86" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6</v>
       </c>
       <c r="F86" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>6</v>
       </c>
       <c r="G86" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10</v>
       </c>
       <c r="AE86" t="s">
@@ -5410,23 +5413,23 @@
         <v>50</v>
       </c>
       <c r="C87" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="D87" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="E87" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="F87" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="G87" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>5</v>
       </c>
       <c r="AD87" t="s">
@@ -5485,19 +5488,19 @@
         <v>5</v>
       </c>
       <c r="D89" s="33">
-        <f t="shared" ref="D89:G89" si="64">AVERAGE(D90:D97)</f>
+        <f t="shared" ref="D89:G89" si="66">AVERAGE(D90:D97)</f>
         <v>8</v>
       </c>
       <c r="E89" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6.125</v>
       </c>
       <c r="F89" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>6.25</v>
       </c>
       <c r="G89" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>9.125</v>
       </c>
       <c r="AE89" t="s">
@@ -5851,11 +5854,11 @@
         <v>10</v>
       </c>
       <c r="E99" s="34">
-        <f t="shared" ref="D99:G99" si="65">AVERAGE(E100:E101)</f>
+        <f t="shared" ref="E99:F99" si="67">AVERAGE(E100:E101)</f>
         <v>6</v>
       </c>
       <c r="F99" s="34">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>8.5</v>
       </c>
       <c r="G99" s="41">
@@ -6003,19 +6006,19 @@
         <v>8</v>
       </c>
       <c r="D103" s="34">
-        <f t="shared" ref="D103" si="66">AVERAGE(D104:D105)</f>
+        <f t="shared" ref="D103" si="68">AVERAGE(D104:D105)</f>
         <v>5</v>
       </c>
       <c r="E103" s="34">
-        <f t="shared" ref="E103" si="67">AVERAGE(E104:E105)</f>
+        <f t="shared" ref="E103" si="69">AVERAGE(E104:E105)</f>
         <v>8</v>
       </c>
       <c r="F103" s="34">
-        <f t="shared" ref="F103" si="68">AVERAGE(F104:F105)</f>
+        <f t="shared" ref="F103" si="70">AVERAGE(F104:F105)</f>
         <v>5</v>
       </c>
       <c r="G103" s="41">
-        <f t="shared" ref="G103" si="69">AVERAGE(G104:G105)</f>
+        <f t="shared" ref="G103" si="71">AVERAGE(G104:G105)</f>
         <v>6</v>
       </c>
       <c r="AH103">
@@ -6155,19 +6158,19 @@
         <v>5</v>
       </c>
       <c r="D107" s="34">
-        <f t="shared" ref="D107:G107" si="70">AVERAGE(D108:D110)</f>
+        <f t="shared" ref="D107:G107" si="72">AVERAGE(D108:D110)</f>
         <v>8</v>
       </c>
       <c r="E107" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>8.5</v>
       </c>
       <c r="F107" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
       <c r="G107" s="41">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>9</v>
       </c>
       <c r="AH107">
@@ -6318,19 +6321,19 @@
         <v>5.5</v>
       </c>
       <c r="D112" s="34">
-        <f t="shared" ref="D112:G112" si="71">AVERAGE(D113:D116)</f>
+        <f t="shared" ref="D112:G112" si="73">AVERAGE(D113:D116)</f>
         <v>5.5</v>
       </c>
       <c r="E112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="F112" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>5.5</v>
       </c>
       <c r="G112" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
       <c r="AD112" s="4" t="s">
@@ -6543,19 +6546,19 @@
         <v>5.5</v>
       </c>
       <c r="D118" s="34">
-        <f t="shared" ref="D118" si="72">AVERAGE(D119:D122)</f>
+        <f t="shared" ref="D118" si="74">AVERAGE(D119:D122)</f>
         <v>7.5</v>
       </c>
       <c r="E118" s="34">
-        <f t="shared" ref="E118" si="73">AVERAGE(E119:E122)</f>
+        <f t="shared" ref="E118" si="75">AVERAGE(E119:E122)</f>
         <v>5.25</v>
       </c>
       <c r="F118" s="34">
-        <f t="shared" ref="F118" si="74">AVERAGE(F119:F122)</f>
+        <f t="shared" ref="F118" si="76">AVERAGE(F119:F122)</f>
         <v>4.25</v>
       </c>
       <c r="G118" s="41">
-        <f t="shared" ref="G118" si="75">AVERAGE(G119:G122)</f>
+        <f t="shared" ref="G118" si="77">AVERAGE(G119:G122)</f>
         <v>7.75</v>
       </c>
       <c r="AE118" t="s">
@@ -6740,23 +6743,23 @@
         <v>1</v>
       </c>
       <c r="AI123" s="9">
-        <f t="shared" ref="AI123:AI128" si="76">AI71</f>
+        <f t="shared" ref="AI123:AI128" si="78">AI71</f>
         <v>5</v>
       </c>
       <c r="AJ123" s="9">
-        <f t="shared" ref="AJ123:AJ128" si="77">AJ71</f>
+        <f t="shared" ref="AJ123:AJ128" si="79">AJ71</f>
         <v>10</v>
       </c>
       <c r="AK123" s="9">
-        <f t="shared" ref="AK123:AK128" si="78">AK71</f>
+        <f t="shared" ref="AK123:AK128" si="80">AK71</f>
         <v>5</v>
       </c>
       <c r="AL123" s="9">
-        <f t="shared" ref="AL123:AL128" si="79">AL71</f>
+        <f t="shared" ref="AL123:AL128" si="81">AL71</f>
         <v>10</v>
       </c>
       <c r="AM123" s="9">
-        <f t="shared" ref="AM123:AM128" si="80">AM71</f>
+        <f t="shared" ref="AM123:AM128" si="82">AM71</f>
         <v>10</v>
       </c>
       <c r="AN123" s="9"/>
@@ -6773,19 +6776,19 @@
         <v>10</v>
       </c>
       <c r="D124" s="34">
-        <f t="shared" ref="D124" si="81">AVERAGE(D125:D126)</f>
+        <f t="shared" ref="D124" si="83">AVERAGE(D125:D126)</f>
         <v>2.5</v>
       </c>
       <c r="E124" s="34">
-        <f t="shared" ref="E124" si="82">AVERAGE(E125:E126)</f>
+        <f t="shared" ref="E124" si="84">AVERAGE(E125:E126)</f>
         <v>10</v>
       </c>
       <c r="F124" s="34">
-        <f t="shared" ref="F124" si="83">AVERAGE(F125:F126)</f>
+        <f t="shared" ref="F124" si="85">AVERAGE(F125:F126)</f>
         <v>7.5</v>
       </c>
       <c r="G124" s="41">
-        <f t="shared" ref="G124" si="84">AVERAGE(G125:G126)</f>
+        <f t="shared" ref="G124" si="86">AVERAGE(G125:G126)</f>
         <v>2.5</v>
       </c>
       <c r="AF124" t="s">
@@ -6795,23 +6798,23 @@
         <v>1</v>
       </c>
       <c r="AI124" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>8</v>
       </c>
       <c r="AJ124" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="AK124" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>8</v>
       </c>
       <c r="AL124" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>9</v>
       </c>
       <c r="AM124" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10</v>
       </c>
       <c r="AN124" s="9"/>
@@ -6844,23 +6847,23 @@
         <v>1</v>
       </c>
       <c r="AI125" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>8</v>
       </c>
       <c r="AJ125" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>8</v>
       </c>
       <c r="AK125" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>10</v>
       </c>
       <c r="AL125" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>8</v>
       </c>
       <c r="AM125" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10</v>
       </c>
       <c r="AN125" s="9"/>
@@ -6893,23 +6896,23 @@
         <v>1</v>
       </c>
       <c r="AI126" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>10</v>
       </c>
       <c r="AJ126" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="AK126" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>7</v>
       </c>
       <c r="AL126" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>10</v>
       </c>
       <c r="AM126" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>7</v>
       </c>
       <c r="AN126" s="9"/>
@@ -6930,23 +6933,23 @@
         <v>1</v>
       </c>
       <c r="AI127" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>6</v>
       </c>
       <c r="AJ127" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>10</v>
       </c>
       <c r="AK127" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6</v>
       </c>
       <c r="AL127" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>6</v>
       </c>
       <c r="AM127" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>10</v>
       </c>
       <c r="AN127" s="9"/>
@@ -6963,19 +6966,19 @@
         <v>9</v>
       </c>
       <c r="D128" s="34">
-        <f t="shared" ref="D128" si="85">AVERAGE(D129:D130)</f>
+        <f t="shared" ref="D128" si="87">AVERAGE(D129:D130)</f>
         <v>4</v>
       </c>
       <c r="E128" s="34">
-        <f t="shared" ref="E128" si="86">AVERAGE(E129:E130)</f>
+        <f t="shared" ref="E128" si="88">AVERAGE(E129:E130)</f>
         <v>9</v>
       </c>
       <c r="F128" s="34">
-        <f t="shared" ref="F128" si="87">AVERAGE(F129:F130)</f>
+        <f t="shared" ref="F128" si="89">AVERAGE(F129:F130)</f>
         <v>6.5</v>
       </c>
       <c r="G128" s="41">
-        <f t="shared" ref="G128" si="88">AVERAGE(G129:G130)</f>
+        <f t="shared" ref="G128" si="90">AVERAGE(G129:G130)</f>
         <v>4</v>
       </c>
       <c r="AF128" t="s">
@@ -6985,23 +6988,23 @@
         <v>1</v>
       </c>
       <c r="AI128" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>5</v>
       </c>
       <c r="AJ128" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>5</v>
       </c>
       <c r="AK128" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5</v>
       </c>
       <c r="AL128" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5</v>
       </c>
       <c r="AM128" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>5</v>
       </c>
       <c r="AN128" s="9"/>
@@ -7928,6 +7931,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>